--- a/docs/Year2/BlockC/MS Teams Assignment Template/Worklog - Y2C_2022-23_ADSAI.xlsx
+++ b/docs/Year2/BlockC/MS Teams Assignment Template/Worklog - Y2C_2022-23_ADSAI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\AAI-DM\docs\Year2\BlockB\MS Teams Assignment Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC94BAA7-616B-439A-89B6-011172623A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FC94BAA7-616B-439A-89B6-011172623A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6B2E55-2C26-4E9D-96A2-E98547F70645}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$98</definedName>
     <definedName name="Z_8BAC9A6B_5D32_4E8D_967D_E17D357516F8_.wvu.FilterData" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <customWorkbookViews>
     <customWorkbookView name="TODO" guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
@@ -120,6 +120,9 @@
     <t>Week 7</t>
   </si>
   <si>
+    <t>Week 8</t>
+  </si>
+  <si>
     <t>Learning Objective</t>
   </si>
   <si>
@@ -153,6 +156,9 @@
     <t>TOTAL HOURS PER WEEK</t>
   </si>
   <si>
+    <t>Don't touch this sheet! This sheet is not relevant for you this year! It becomes relevant when you set your own Intended Learning Outcomes (ILO)!</t>
+  </si>
+  <si>
     <t>Task Status</t>
   </si>
   <si>
@@ -168,42 +174,63 @@
     <t>Design</t>
   </si>
   <si>
+    <t>ILO 1.3</t>
+  </si>
+  <si>
     <t>Unplanned</t>
   </si>
   <si>
     <t>Meeting</t>
   </si>
   <si>
+    <t>ILO 2.2</t>
+  </si>
+  <si>
     <t>Blocked</t>
   </si>
   <si>
     <t>Programming</t>
   </si>
   <si>
+    <t>ILO 3.1</t>
+  </si>
+  <si>
     <t>In-Progress</t>
   </si>
   <si>
     <t>Research</t>
   </si>
   <si>
+    <t>ILO 4.0</t>
+  </si>
+  <si>
     <t>Done</t>
   </si>
   <si>
     <t>Testing</t>
   </si>
   <si>
+    <t>ILO 5.0</t>
+  </si>
+  <si>
     <t>Delayed</t>
   </si>
   <si>
     <t>Workshop</t>
   </si>
   <si>
+    <t>ILO 6.0</t>
+  </si>
+  <si>
     <t>Cancelled</t>
   </si>
   <si>
     <t>Planning</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Evidencing</t>
   </si>
   <si>
@@ -220,33 +247,6 @@
   </si>
   <si>
     <t>Break</t>
-  </si>
-  <si>
-    <t>ILO 3.1</t>
-  </si>
-  <si>
-    <t>ILO 4.1</t>
-  </si>
-  <si>
-    <t>ILO 4.2</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Don't touch this sheet! This sheet is not relevant for you this year! It becomes relevant when you set your own Intended Learning Outcomes (ILO)!</t>
-  </si>
-  <si>
-    <t>ILO 2.0</t>
-  </si>
-  <si>
-    <t>ILO 1.1</t>
-  </si>
-  <si>
-    <t>ILO 1.2</t>
-  </si>
-  <si>
-    <t>ILO 3.2</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
     <numFmt numFmtId="165" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -650,12 +650,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -692,8 +689,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -703,10 +698,15 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1170,25 +1170,25 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
-    <col min="5" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
-    <col min="11" max="11" width="81.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="81.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1223,56 +1223,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.15">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.15">
       <c r="A5" s="33"/>
       <c r="B5" s="28"/>
       <c r="C5" s="12" t="s">
@@ -1290,7 +1290,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.15">
       <c r="A6" s="33"/>
       <c r="B6" s="28"/>
       <c r="C6" s="12" t="s">
@@ -1308,7 +1308,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.15">
       <c r="A7" s="33"/>
       <c r="B7" s="28"/>
       <c r="C7" s="12" t="s">
@@ -1326,7 +1326,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.15">
       <c r="A8" s="33"/>
       <c r="B8" s="28"/>
       <c r="C8" s="12" t="s">
@@ -1344,7 +1344,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.15">
       <c r="A9" s="33"/>
       <c r="B9" s="28"/>
       <c r="C9" s="12" t="s">
@@ -1362,7 +1362,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.15">
       <c r="A10" s="33"/>
       <c r="B10" s="28"/>
       <c r="C10" s="12" t="s">
@@ -1380,7 +1380,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.15">
       <c r="A11" s="33"/>
       <c r="B11" s="28"/>
       <c r="C11" s="12" t="s">
@@ -1398,7 +1398,7 @@
       <c r="J11" s="29"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.15">
       <c r="A12" s="33"/>
       <c r="B12" s="28"/>
       <c r="C12" s="12" t="s">
@@ -1416,7 +1416,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.15">
       <c r="A13" s="33"/>
       <c r="B13" s="28"/>
       <c r="C13" s="12" t="s">
@@ -1434,7 +1434,7 @@
       <c r="J13" s="29"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.15">
       <c r="A14" s="33"/>
       <c r="B14" s="28"/>
       <c r="C14" s="12" t="s">
@@ -1452,7 +1452,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.15">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1476,56 +1476,56 @@
       <c r="J15" s="25"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.15">
       <c r="A17" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
-    </row>
-    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="1:11" ht="27.75" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="1:11" ht="13.15">
       <c r="A19" s="27"/>
       <c r="B19" s="28"/>
       <c r="C19" s="12" t="s">
@@ -1543,7 +1543,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.15">
       <c r="A20" s="27"/>
       <c r="B20" s="28"/>
       <c r="C20" s="12" t="s">
@@ -1561,7 +1561,7 @@
       <c r="J20" s="29"/>
       <c r="K20" s="28"/>
     </row>
-    <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.15">
       <c r="A21" s="27"/>
       <c r="B21" s="28"/>
       <c r="C21" s="12" t="s">
@@ -1579,7 +1579,7 @@
       <c r="J21" s="29"/>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.15">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="12" t="s">
@@ -1597,7 +1597,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="28"/>
     </row>
-    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.15">
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="12" t="s">
@@ -1615,7 +1615,7 @@
       <c r="J23" s="29"/>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.15">
       <c r="A24" s="27"/>
       <c r="B24" s="28"/>
       <c r="C24" s="12" t="s">
@@ -1633,7 +1633,7 @@
       <c r="J24" s="29"/>
       <c r="K24" s="28"/>
     </row>
-    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.15">
       <c r="A25" s="27"/>
       <c r="B25" s="28"/>
       <c r="C25" s="12" t="s">
@@ -1651,7 +1651,7 @@
       <c r="J25" s="29"/>
       <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.15">
       <c r="A26" s="27"/>
       <c r="B26" s="28"/>
       <c r="C26" s="12" t="s">
@@ -1669,7 +1669,7 @@
       <c r="J26" s="29"/>
       <c r="K26" s="28"/>
     </row>
-    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.15">
       <c r="A27" s="27"/>
       <c r="B27" s="28"/>
       <c r="C27" s="12" t="s">
@@ -1687,7 +1687,7 @@
       <c r="J27" s="29"/>
       <c r="K27" s="28"/>
     </row>
-    <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.15">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="12" t="s">
@@ -1705,7 +1705,7 @@
       <c r="J28" s="29"/>
       <c r="K28" s="28"/>
     </row>
-    <row r="29" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.15">
       <c r="A29" s="19"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -1729,56 +1729,56 @@
       <c r="J29" s="25"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A30" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.15">
       <c r="A31" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51"/>
-    </row>
-    <row r="32" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
+    </row>
+    <row r="32" spans="1:11" ht="27.75" customHeight="1">
       <c r="A32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
-    </row>
-    <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="66"/>
+    </row>
+    <row r="33" spans="1:11" ht="13.15">
       <c r="A33" s="33"/>
       <c r="B33" s="28"/>
       <c r="C33" s="12" t="s">
@@ -1796,7 +1796,7 @@
       <c r="J33" s="29"/>
       <c r="K33" s="28"/>
     </row>
-    <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.15">
       <c r="A34" s="33"/>
       <c r="B34" s="28"/>
       <c r="C34" s="12" t="s">
@@ -1814,7 +1814,7 @@
       <c r="J34" s="29"/>
       <c r="K34" s="28"/>
     </row>
-    <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.15">
       <c r="A35" s="33"/>
       <c r="B35" s="28"/>
       <c r="C35" s="12" t="s">
@@ -1832,7 +1832,7 @@
       <c r="J35" s="29"/>
       <c r="K35" s="28"/>
     </row>
-    <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.15">
       <c r="A36" s="33"/>
       <c r="B36" s="28"/>
       <c r="C36" s="12" t="s">
@@ -1850,7 +1850,7 @@
       <c r="J36" s="29"/>
       <c r="K36" s="28"/>
     </row>
-    <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.15">
       <c r="A37" s="33"/>
       <c r="B37" s="28"/>
       <c r="C37" s="12" t="s">
@@ -1868,7 +1868,7 @@
       <c r="J37" s="29"/>
       <c r="K37" s="28"/>
     </row>
-    <row r="38" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.15">
       <c r="A38" s="33"/>
       <c r="B38" s="28"/>
       <c r="C38" s="12" t="s">
@@ -1886,7 +1886,7 @@
       <c r="J38" s="29"/>
       <c r="K38" s="28"/>
     </row>
-    <row r="39" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="13.15">
       <c r="A39" s="33"/>
       <c r="B39" s="28"/>
       <c r="C39" s="12" t="s">
@@ -1904,7 +1904,7 @@
       <c r="J39" s="29"/>
       <c r="K39" s="28"/>
     </row>
-    <row r="40" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="13.15">
       <c r="A40" s="33"/>
       <c r="B40" s="28"/>
       <c r="C40" s="12" t="s">
@@ -1922,7 +1922,7 @@
       <c r="J40" s="29"/>
       <c r="K40" s="28"/>
     </row>
-    <row r="41" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="13.15">
       <c r="A41" s="33"/>
       <c r="B41" s="28"/>
       <c r="C41" s="12" t="s">
@@ -1940,7 +1940,7 @@
       <c r="J41" s="29"/>
       <c r="K41" s="28"/>
     </row>
-    <row r="42" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="13.15">
       <c r="A42" s="33"/>
       <c r="B42" s="28"/>
       <c r="C42" s="12" t="s">
@@ -1958,7 +1958,7 @@
       <c r="J42" s="29"/>
       <c r="K42" s="28"/>
     </row>
-    <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="13.15">
       <c r="A43" s="19"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -1982,56 +1982,56 @@
       <c r="J43" s="25"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A44" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="51"/>
-    </row>
-    <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="66"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.15">
       <c r="A45" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="51"/>
-    </row>
-    <row r="46" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="66"/>
+    </row>
+    <row r="46" spans="1:11" ht="27.75" customHeight="1">
       <c r="A46" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51"/>
-    </row>
-    <row r="47" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="66"/>
+    </row>
+    <row r="47" spans="1:11" ht="13.15">
       <c r="A47" s="33"/>
       <c r="B47" s="28"/>
       <c r="C47" s="12" t="s">
@@ -2049,7 +2049,7 @@
       <c r="J47" s="29"/>
       <c r="K47" s="28"/>
     </row>
-    <row r="48" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="13.15">
       <c r="A48" s="33"/>
       <c r="B48" s="28"/>
       <c r="C48" s="12" t="s">
@@ -2067,7 +2067,7 @@
       <c r="J48" s="29"/>
       <c r="K48" s="28"/>
     </row>
-    <row r="49" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="13.15">
       <c r="A49" s="33"/>
       <c r="B49" s="28"/>
       <c r="C49" s="12" t="s">
@@ -2085,7 +2085,7 @@
       <c r="J49" s="29"/>
       <c r="K49" s="28"/>
     </row>
-    <row r="50" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="13.15">
       <c r="A50" s="33"/>
       <c r="B50" s="28"/>
       <c r="C50" s="12" t="s">
@@ -2103,7 +2103,7 @@
       <c r="J50" s="29"/>
       <c r="K50" s="28"/>
     </row>
-    <row r="51" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="13.15">
       <c r="A51" s="33"/>
       <c r="B51" s="28"/>
       <c r="C51" s="12" t="s">
@@ -2121,7 +2121,7 @@
       <c r="J51" s="29"/>
       <c r="K51" s="28"/>
     </row>
-    <row r="52" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="13.15">
       <c r="A52" s="33"/>
       <c r="B52" s="28"/>
       <c r="C52" s="12" t="s">
@@ -2139,7 +2139,7 @@
       <c r="J52" s="29"/>
       <c r="K52" s="28"/>
     </row>
-    <row r="53" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="13.15">
       <c r="A53" s="33"/>
       <c r="B53" s="28"/>
       <c r="C53" s="12" t="s">
@@ -2157,7 +2157,7 @@
       <c r="J53" s="29"/>
       <c r="K53" s="28"/>
     </row>
-    <row r="54" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="13.15">
       <c r="A54" s="33"/>
       <c r="B54" s="28"/>
       <c r="C54" s="12" t="s">
@@ -2175,7 +2175,7 @@
       <c r="J54" s="29"/>
       <c r="K54" s="28"/>
     </row>
-    <row r="55" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="13.15">
       <c r="A55" s="33"/>
       <c r="B55" s="28"/>
       <c r="C55" s="12" t="s">
@@ -2193,7 +2193,7 @@
       <c r="J55" s="29"/>
       <c r="K55" s="28"/>
     </row>
-    <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="13.15">
       <c r="A56" s="33"/>
       <c r="B56" s="28"/>
       <c r="C56" s="12" t="s">
@@ -2211,7 +2211,7 @@
       <c r="J56" s="29"/>
       <c r="K56" s="28"/>
     </row>
-    <row r="57" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="13.15">
       <c r="A57" s="19"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -2235,56 +2235,56 @@
       <c r="J57" s="25"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="61" t="s">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A58" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="51"/>
-    </row>
-    <row r="59" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="66"/>
+    </row>
+    <row r="59" spans="1:11" ht="13.15">
       <c r="A59" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="51"/>
-    </row>
-    <row r="60" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="66"/>
+    </row>
+    <row r="60" spans="1:11" ht="27.75" customHeight="1">
       <c r="A60" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="51"/>
-    </row>
-    <row r="61" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="66"/>
+    </row>
+    <row r="61" spans="1:11" ht="13.15">
       <c r="A61" s="33"/>
       <c r="B61" s="28"/>
       <c r="C61" s="12" t="s">
@@ -2302,7 +2302,7 @@
       <c r="J61" s="29"/>
       <c r="K61" s="28"/>
     </row>
-    <row r="62" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="13.15">
       <c r="A62" s="33"/>
       <c r="B62" s="28"/>
       <c r="C62" s="12" t="s">
@@ -2320,7 +2320,7 @@
       <c r="J62" s="29"/>
       <c r="K62" s="28"/>
     </row>
-    <row r="63" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="13.15">
       <c r="A63" s="33"/>
       <c r="B63" s="28"/>
       <c r="C63" s="12" t="s">
@@ -2338,7 +2338,7 @@
       <c r="J63" s="29"/>
       <c r="K63" s="28"/>
     </row>
-    <row r="64" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="13.15">
       <c r="A64" s="33"/>
       <c r="B64" s="28"/>
       <c r="C64" s="12" t="s">
@@ -2356,7 +2356,7 @@
       <c r="J64" s="29"/>
       <c r="K64" s="28"/>
     </row>
-    <row r="65" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="13.15">
       <c r="A65" s="33"/>
       <c r="B65" s="28"/>
       <c r="C65" s="12" t="s">
@@ -2374,7 +2374,7 @@
       <c r="J65" s="29"/>
       <c r="K65" s="28"/>
     </row>
-    <row r="66" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="13.15">
       <c r="A66" s="33"/>
       <c r="B66" s="28"/>
       <c r="C66" s="12" t="s">
@@ -2392,7 +2392,7 @@
       <c r="J66" s="29"/>
       <c r="K66" s="28"/>
     </row>
-    <row r="67" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="13.15">
       <c r="A67" s="33"/>
       <c r="B67" s="28"/>
       <c r="C67" s="12" t="s">
@@ -2410,7 +2410,7 @@
       <c r="J67" s="29"/>
       <c r="K67" s="28"/>
     </row>
-    <row r="68" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="13.15">
       <c r="A68" s="33"/>
       <c r="B68" s="28"/>
       <c r="C68" s="12" t="s">
@@ -2428,7 +2428,7 @@
       <c r="J68" s="29"/>
       <c r="K68" s="28"/>
     </row>
-    <row r="69" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="13.15">
       <c r="A69" s="33"/>
       <c r="B69" s="28"/>
       <c r="C69" s="12" t="s">
@@ -2446,7 +2446,7 @@
       <c r="J69" s="29"/>
       <c r="K69" s="28"/>
     </row>
-    <row r="70" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="13.15">
       <c r="A70" s="33"/>
       <c r="B70" s="28"/>
       <c r="C70" s="12" t="s">
@@ -2464,7 +2464,7 @@
       <c r="J70" s="29"/>
       <c r="K70" s="28"/>
     </row>
-    <row r="71" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="13.15">
       <c r="A71" s="19"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -2488,56 +2488,56 @@
       <c r="J71" s="25"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="54" t="s">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A72" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51"/>
-    </row>
-    <row r="73" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="66"/>
+    </row>
+    <row r="73" spans="1:11" ht="13.15">
       <c r="A73" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="51"/>
-    </row>
-    <row r="74" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="66"/>
+    </row>
+    <row r="74" spans="1:11" ht="27.75" customHeight="1">
       <c r="A74" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="51"/>
-    </row>
-    <row r="75" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="66"/>
+    </row>
+    <row r="75" spans="1:11" ht="13.15">
       <c r="A75" s="33"/>
       <c r="B75" s="28"/>
       <c r="C75" s="12" t="s">
@@ -2555,7 +2555,7 @@
       <c r="J75" s="29"/>
       <c r="K75" s="28"/>
     </row>
-    <row r="76" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="13.15">
       <c r="A76" s="33"/>
       <c r="B76" s="28"/>
       <c r="C76" s="12" t="s">
@@ -2573,7 +2573,7 @@
       <c r="J76" s="29"/>
       <c r="K76" s="28"/>
     </row>
-    <row r="77" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="13.15">
       <c r="A77" s="33"/>
       <c r="B77" s="28"/>
       <c r="C77" s="12" t="s">
@@ -2591,7 +2591,7 @@
       <c r="J77" s="29"/>
       <c r="K77" s="28"/>
     </row>
-    <row r="78" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="13.15">
       <c r="A78" s="33"/>
       <c r="B78" s="28"/>
       <c r="C78" s="12" t="s">
@@ -2609,7 +2609,7 @@
       <c r="J78" s="29"/>
       <c r="K78" s="28"/>
     </row>
-    <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="13.15">
       <c r="A79" s="33"/>
       <c r="B79" s="28"/>
       <c r="C79" s="12" t="s">
@@ -2627,7 +2627,7 @@
       <c r="J79" s="29"/>
       <c r="K79" s="28"/>
     </row>
-    <row r="80" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="13.15">
       <c r="A80" s="33"/>
       <c r="B80" s="28"/>
       <c r="C80" s="12" t="s">
@@ -2645,7 +2645,7 @@
       <c r="J80" s="29"/>
       <c r="K80" s="28"/>
     </row>
-    <row r="81" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="13.15">
       <c r="A81" s="33"/>
       <c r="B81" s="28"/>
       <c r="C81" s="12" t="s">
@@ -2663,7 +2663,7 @@
       <c r="J81" s="29"/>
       <c r="K81" s="28"/>
     </row>
-    <row r="82" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="13.15">
       <c r="A82" s="33"/>
       <c r="B82" s="28"/>
       <c r="C82" s="12" t="s">
@@ -2681,7 +2681,7 @@
       <c r="J82" s="29"/>
       <c r="K82" s="28"/>
     </row>
-    <row r="83" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="13.15">
       <c r="A83" s="33"/>
       <c r="B83" s="28"/>
       <c r="C83" s="12" t="s">
@@ -2699,7 +2699,7 @@
       <c r="J83" s="29"/>
       <c r="K83" s="28"/>
     </row>
-    <row r="84" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="13.15">
       <c r="A84" s="33"/>
       <c r="B84" s="28"/>
       <c r="C84" s="12" t="s">
@@ -2717,7 +2717,7 @@
       <c r="J84" s="29"/>
       <c r="K84" s="28"/>
     </row>
-    <row r="85" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="13.15">
       <c r="A85" s="19"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -2741,56 +2741,56 @@
       <c r="J85" s="25"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="56" t="s">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A86" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="51"/>
-    </row>
-    <row r="87" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="66"/>
+    </row>
+    <row r="87" spans="1:11" ht="13.15">
       <c r="A87" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="67" t="s">
+      <c r="B87" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="51"/>
-    </row>
-    <row r="88" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="66"/>
+    </row>
+    <row r="88" spans="1:11" ht="28.5" customHeight="1">
       <c r="A88" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="51"/>
-    </row>
-    <row r="89" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="66"/>
+    </row>
+    <row r="89" spans="1:11" ht="13.15">
       <c r="A89" s="33"/>
       <c r="B89" s="28"/>
       <c r="C89" s="12" t="s">
@@ -2808,7 +2808,7 @@
       <c r="J89" s="29"/>
       <c r="K89" s="28"/>
     </row>
-    <row r="90" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="13.15">
       <c r="A90" s="33"/>
       <c r="B90" s="28"/>
       <c r="C90" s="12" t="s">
@@ -2826,7 +2826,7 @@
       <c r="J90" s="29"/>
       <c r="K90" s="28"/>
     </row>
-    <row r="91" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="13.15">
       <c r="A91" s="33"/>
       <c r="B91" s="28"/>
       <c r="C91" s="12" t="s">
@@ -2844,7 +2844,7 @@
       <c r="J91" s="29"/>
       <c r="K91" s="28"/>
     </row>
-    <row r="92" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="13.15">
       <c r="A92" s="33"/>
       <c r="B92" s="28"/>
       <c r="C92" s="12" t="s">
@@ -2862,7 +2862,7 @@
       <c r="J92" s="29"/>
       <c r="K92" s="28"/>
     </row>
-    <row r="93" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="13.15">
       <c r="A93" s="33"/>
       <c r="B93" s="28"/>
       <c r="C93" s="12" t="s">
@@ -2880,7 +2880,7 @@
       <c r="J93" s="29"/>
       <c r="K93" s="28"/>
     </row>
-    <row r="94" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="13.15">
       <c r="A94" s="33"/>
       <c r="B94" s="28"/>
       <c r="C94" s="12" t="s">
@@ -2898,7 +2898,7 @@
       <c r="J94" s="29"/>
       <c r="K94" s="28"/>
     </row>
-    <row r="95" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="13.15">
       <c r="A95" s="33"/>
       <c r="B95" s="28"/>
       <c r="C95" s="12" t="s">
@@ -2916,7 +2916,7 @@
       <c r="J95" s="29"/>
       <c r="K95" s="28"/>
     </row>
-    <row r="96" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="13.15">
       <c r="A96" s="33"/>
       <c r="B96" s="28"/>
       <c r="C96" s="12" t="s">
@@ -2934,7 +2934,7 @@
       <c r="J96" s="29"/>
       <c r="K96" s="28"/>
     </row>
-    <row r="97" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="13.15">
       <c r="A97" s="33"/>
       <c r="B97" s="28"/>
       <c r="C97" s="12" t="s">
@@ -2952,7 +2952,7 @@
       <c r="J97" s="29"/>
       <c r="K97" s="28"/>
     </row>
-    <row r="98" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="13.15">
       <c r="A98" s="33"/>
       <c r="B98" s="28"/>
       <c r="C98" s="12" t="s">
@@ -2970,7 +2970,7 @@
       <c r="J98" s="29"/>
       <c r="K98" s="28"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15" customHeight="1">
       <c r="A99" s="19"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -2994,56 +2994,56 @@
       <c r="J99" s="25"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B100" s="64"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="64"/>
-      <c r="I100" s="64"/>
-      <c r="J100" s="64"/>
-      <c r="K100" s="65"/>
-    </row>
-    <row r="101" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A100" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="68"/>
+    </row>
+    <row r="101" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="65"/>
-    </row>
-    <row r="102" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="68"/>
+    </row>
+    <row r="102" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="66" t="s">
+      <c r="B102" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="64"/>
-      <c r="I102" s="64"/>
-      <c r="J102" s="64"/>
-      <c r="K102" s="65"/>
-    </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="68"/>
+    </row>
+    <row r="103" spans="1:11" ht="15" customHeight="1">
       <c r="A103" s="33"/>
       <c r="B103" s="28"/>
       <c r="C103" s="12" t="s">
@@ -3061,7 +3061,7 @@
       <c r="J103" s="29"/>
       <c r="K103" s="28"/>
     </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15" customHeight="1">
       <c r="A104" s="33"/>
       <c r="B104" s="28"/>
       <c r="C104" s="12" t="s">
@@ -3079,7 +3079,7 @@
       <c r="J104" s="29"/>
       <c r="K104" s="28"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" customHeight="1">
       <c r="A105" s="33"/>
       <c r="B105" s="28"/>
       <c r="C105" s="12" t="s">
@@ -3097,7 +3097,7 @@
       <c r="J105" s="29"/>
       <c r="K105" s="28"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15" customHeight="1">
       <c r="A106" s="33"/>
       <c r="B106" s="28"/>
       <c r="C106" s="12" t="s">
@@ -3115,7 +3115,7 @@
       <c r="J106" s="29"/>
       <c r="K106" s="28"/>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15" customHeight="1">
       <c r="A107" s="33"/>
       <c r="B107" s="28"/>
       <c r="C107" s="12" t="s">
@@ -3133,7 +3133,7 @@
       <c r="J107" s="29"/>
       <c r="K107" s="28"/>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15" customHeight="1">
       <c r="A108" s="33"/>
       <c r="B108" s="28"/>
       <c r="C108" s="12" t="s">
@@ -3151,7 +3151,7 @@
       <c r="J108" s="29"/>
       <c r="K108" s="28"/>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15" customHeight="1">
       <c r="A109" s="33"/>
       <c r="B109" s="28"/>
       <c r="C109" s="12" t="s">
@@ -3169,7 +3169,7 @@
       <c r="J109" s="29"/>
       <c r="K109" s="28"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15" customHeight="1">
       <c r="A110" s="33"/>
       <c r="B110" s="28"/>
       <c r="C110" s="12" t="s">
@@ -3187,7 +3187,7 @@
       <c r="J110" s="29"/>
       <c r="K110" s="28"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15" customHeight="1">
       <c r="A111" s="33"/>
       <c r="B111" s="28"/>
       <c r="C111" s="12" t="s">
@@ -3205,7 +3205,7 @@
       <c r="J111" s="29"/>
       <c r="K111" s="28"/>
     </row>
-    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15" customHeight="1">
       <c r="A112" s="33"/>
       <c r="B112" s="28"/>
       <c r="C112" s="12" t="s">
@@ -3223,7 +3223,7 @@
       <c r="J112" s="29"/>
       <c r="K112" s="28"/>
     </row>
-    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" customHeight="1">
       <c r="A113" s="19"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -3252,7 +3252,7 @@
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{0740B2B3-4325-42EF-A1F3-D5090E873DFB}">
+      <autoFilter ref="A1:K15" xr:uid="{75913ED1-34F3-4310-ACED-0A11211DE639}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -3408,45 +3408,45 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.9">
       <c r="B2" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.9">
       <c r="B3" s="6" t="str">
         <f>'Drop-downs'!C2</f>
         <v>-</v>
@@ -3464,10 +3464,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.9">
       <c r="B4" s="6" t="str">
         <f>'Drop-downs'!C3</f>
-        <v>ILO 1.1</v>
+        <v>ILO 1.3</v>
       </c>
       <c r="C4" s="15">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(SUM(FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$14,'Worklog_Tasks&amp;Times'!$F$5:$F$14=$B4)),0)"),0)</f>
@@ -3485,10 +3485,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="13.9">
       <c r="B5" s="6" t="str">
         <f>'Drop-downs'!C4</f>
-        <v>ILO 1.2</v>
+        <v>ILO 2.2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -3503,10 +3503,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="13.9">
       <c r="B6" s="6" t="str">
         <f>'Drop-downs'!C5</f>
-        <v>ILO 2.0</v>
+        <v>ILO 3.1</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="13.9">
       <c r="B7" s="6" t="str">
         <f>'Drop-downs'!C6</f>
-        <v>ILO 3.1</v>
+        <v>ILO 4.0</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="13.9">
       <c r="B8" s="6" t="str">
         <f>'Drop-downs'!C7</f>
-        <v>ILO 3.2</v>
+        <v>ILO 5.0</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="13.9">
       <c r="B9" s="6" t="str">
         <f>'Drop-downs'!C8</f>
-        <v>ILO 4.1</v>
+        <v>ILO 6.0</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -3575,10 +3575,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="13.9">
       <c r="B10" s="6" t="str">
         <f>'Drop-downs'!C9</f>
-        <v>ILO 4.2</v>
+        <v>NA</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.9">
       <c r="B11" s="6">
         <f>'Drop-downs'!C10</f>
         <v>0</v>
@@ -3611,9 +3611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="13.9">
       <c r="B12" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="18">
         <f ca="1">SUM(C3:C11)</f>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.9">
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -3661,10 +3661,10 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="43"/>
-      <c r="B14" s="68" t="s">
-        <v>62</v>
+      <c r="B14" s="63" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
@@ -3703,59 +3703,59 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
@@ -3767,1080 +3767,1080 @@
       <c r="M4" s="69"/>
       <c r="N4" s="69"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="B10" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="B12" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="B13" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:N4"/>
@@ -4850,14 +4850,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="0985a443-d2af-4487-ab99-abd7888ad824" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4866,17 +4858,32 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D100A5847EBE4D438975065372C3191E" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ece06d0419c1a06f9261605a6634a7bf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0985a443-d2af-4487-ab99-abd7888ad824" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0075ca7f51c04d59e7848e806bb0dbb1" ns2:_="">
-    <xsd:import namespace="0985a443-d2af-4487-ab99-abd7888ad824"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064DEF28CA2629948A9F801C782641252" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c6005e7f719c391f8a081f21693d65f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd38d267-56bb-4e22-b975-199a06fd69fa" xmlns:ns3="d8c712e5-67fc-4595-93cb-a4164dd8eff3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16135cc8f915f339c57eb2d0574bad" ns2:_="" ns3:_="">
+    <xsd:import namespace="bd38d267-56bb-4e22-b975-199a06fd69fa"/>
+    <xsd:import namespace="d8c712e5-67fc-4595-93cb-a4164dd8eff3"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:ReferenceId" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4884,13 +4891,115 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0985a443-d2af-4487-ab99-abd7888ad824" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bd38d267-56bb-4e22-b975-199a06fd69fa" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="ReferenceId" ma:index="8" nillable="true" ma:displayName="ReferenceId" ma:indexed="true" ma:internalName="ReferenceId">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="365a90ea-d0e7-4aae-8ef9-9f5dd1eb65e3" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="23" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8c712e5-67fc-4595-93cb-a4164dd8eff3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5e624992-a676-4554-99c9-a3d8ae70b3e3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d8c712e5-67fc-4595-93cb-a4164dd8eff3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4992,38 +5101,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd38d267-56bb-4e22-b975-199a06fd69fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8c712e5-67fc-4595-93cb-a4164dd8eff3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0985a443-d2af-4487-ab99-abd7888ad824"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75299FFD-0C45-4A88-A7B3-EC98677D3F1A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB6244-E1E9-4B9C-AE7B-63908AAD0388}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0985a443-d2af-4487-ab99-abd7888ad824"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}"/>
 </file>